--- a/sil_trenink.xlsx
+++ b/sil_trenink.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jansu\Desktop\m_a_bakalarka\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90B81EA8-6FEA-441C-AE54-DAD3DF88ED6B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{482A57E7-1A53-4161-8EB8-427E2FAE35B7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -86,7 +86,7 @@
       <charset val="238"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -103,6 +103,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFD9EAD3"/>
         <bgColor rgb="FFD9EAD3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -133,7 +145,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -157,6 +169,12 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -442,7 +460,7 @@
   <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:Q11"/>
+      <selection activeCell="J2" sqref="J2:Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -502,52 +520,52 @@
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="9">
         <v>101.19047619047619</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="9">
         <v>108.33333333333333</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="9">
         <v>67.460317460317455</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="9">
         <v>110.71428571428572</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F2" s="9">
         <v>114.28571428571428</v>
       </c>
-      <c r="G2" s="8">
+      <c r="G2" s="9">
         <v>120.63492063492063</v>
       </c>
-      <c r="H2" s="8">
+      <c r="H2" s="9">
         <v>109.52380952380953</v>
       </c>
-      <c r="I2" s="8">
+      <c r="I2" s="9">
         <v>105.55555555555556</v>
       </c>
-      <c r="J2" s="8">
+      <c r="J2" s="10">
         <v>105.95238095238095</v>
       </c>
-      <c r="K2" s="8">
+      <c r="K2" s="10">
         <v>96.428571428571431</v>
       </c>
-      <c r="L2" s="8">
+      <c r="L2" s="10">
         <v>80.555555555555557</v>
       </c>
-      <c r="M2" s="8">
+      <c r="M2" s="10">
         <v>120.63492063492063</v>
       </c>
-      <c r="N2" s="8">
+      <c r="N2" s="10">
         <v>122.61904761904762</v>
       </c>
-      <c r="O2" s="8">
+      <c r="O2" s="10">
         <v>133.73015873015873</v>
       </c>
-      <c r="P2" s="8">
+      <c r="P2" s="10">
         <v>118.65079365079364</v>
       </c>
-      <c r="Q2" s="8">
+      <c r="Q2" s="10">
         <v>113.09523809523809</v>
       </c>
     </row>
@@ -555,52 +573,52 @@
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="9">
         <v>100.74074074074075</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="9">
         <v>83.703703703703695</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="9">
         <v>62.222222222222221</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="9">
         <v>114.44444444444444</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="9">
         <v>125.1851851851852</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3" s="9">
         <v>107.77777777777777</v>
       </c>
-      <c r="H3" s="8">
+      <c r="H3" s="9">
         <v>111.85185185185185</v>
       </c>
-      <c r="I3" s="8">
+      <c r="I3" s="9">
         <v>103.7037037037037</v>
       </c>
-      <c r="J3" s="8">
+      <c r="J3" s="10">
         <v>103.33333333333334</v>
       </c>
-      <c r="K3" s="8">
+      <c r="K3" s="10">
         <v>84.074074074074076</v>
       </c>
-      <c r="L3" s="8">
+      <c r="L3" s="10">
         <v>65.555555555555557</v>
       </c>
-      <c r="M3" s="8">
+      <c r="M3" s="10">
         <v>101.48148148148148</v>
       </c>
-      <c r="N3" s="8">
+      <c r="N3" s="10">
         <v>118.51851851851853</v>
       </c>
-      <c r="O3" s="8">
+      <c r="O3" s="10">
         <v>115.55555555555554</v>
       </c>
-      <c r="P3" s="8">
+      <c r="P3" s="10">
         <v>113.33333333333333</v>
       </c>
-      <c r="Q3" s="8">
+      <c r="Q3" s="10">
         <v>99.629629629629633</v>
       </c>
     </row>
@@ -608,52 +626,52 @@
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="9">
         <v>104.39560439560441</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="9">
         <v>90.476190476190467</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="9">
         <v>61.904761904761905</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="9">
         <v>112.08791208791209</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="9">
         <v>122.34432234432234</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="9">
         <v>118.68131868131869</v>
       </c>
-      <c r="H4" s="8">
+      <c r="H4" s="9">
         <v>117.94871794871796</v>
       </c>
-      <c r="I4" s="8">
+      <c r="I4" s="9">
         <v>105.4945054945055</v>
       </c>
-      <c r="J4" s="8">
+      <c r="J4" s="10">
         <v>102.56410256410255</v>
       </c>
-      <c r="K4" s="8">
+      <c r="K4" s="10">
         <v>96.336996336996336</v>
       </c>
-      <c r="L4" s="8">
+      <c r="L4" s="10">
         <v>71.794871794871796</v>
       </c>
-      <c r="M4" s="8">
+      <c r="M4" s="10">
         <v>110.98901098901099</v>
       </c>
-      <c r="N4" s="8">
+      <c r="N4" s="10">
         <v>118.31501831501832</v>
       </c>
-      <c r="O4" s="8">
+      <c r="O4" s="10">
         <v>112.82051282051282</v>
       </c>
-      <c r="P4" s="8">
+      <c r="P4" s="10">
         <v>110.62271062271063</v>
       </c>
-      <c r="Q4" s="8">
+      <c r="Q4" s="10">
         <v>97.802197802197796</v>
       </c>
     </row>
@@ -661,52 +679,52 @@
       <c r="A5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="9">
         <v>67.37588652482269</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="9">
         <v>64.893617021276597</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="9">
         <v>50</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="9">
         <v>77.304964539007088</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="9">
         <v>92.907801418439703</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="9">
         <v>73.049645390070921</v>
       </c>
-      <c r="H5" s="8">
+      <c r="H5" s="9">
         <v>69.503546099290787</v>
       </c>
-      <c r="I5" s="8">
+      <c r="I5" s="9">
         <v>69.148936170212778</v>
       </c>
-      <c r="J5" s="8">
+      <c r="J5" s="10">
         <v>74.468085106382972</v>
       </c>
-      <c r="K5" s="8">
+      <c r="K5" s="10">
         <v>68.794326241134769</v>
       </c>
-      <c r="L5" s="8">
+      <c r="L5" s="10">
         <v>59.929078014184398</v>
       </c>
-      <c r="M5" s="8">
+      <c r="M5" s="10">
         <v>71.276595744680847</v>
       </c>
-      <c r="N5" s="8">
+      <c r="N5" s="10">
         <v>82.62411347517731</v>
       </c>
-      <c r="O5" s="8">
+      <c r="O5" s="10">
         <v>86.524822695035454</v>
       </c>
-      <c r="P5" s="8">
+      <c r="P5" s="10">
         <v>74.468085106382972</v>
       </c>
-      <c r="Q5" s="8">
+      <c r="Q5" s="10">
         <v>72.340425531914903</v>
       </c>
     </row>
@@ -714,52 +732,52 @@
       <c r="A6" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="9">
         <v>78.861788617886191</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="9">
         <v>76.01626016260164</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="9">
         <v>75.203252032520311</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="9">
         <v>86.58536585365853</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="9">
         <v>88.211382113821131</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="9">
         <v>71.544715447154474</v>
       </c>
-      <c r="H6" s="8">
+      <c r="H6" s="9">
         <v>62.195121951219512</v>
       </c>
-      <c r="I6" s="8">
+      <c r="I6" s="9">
         <v>70.325203252032523</v>
       </c>
-      <c r="J6" s="8">
+      <c r="J6" s="10">
         <v>80.081300813008141</v>
       </c>
-      <c r="K6" s="8">
+      <c r="K6" s="10">
         <v>80.081300813008141</v>
       </c>
-      <c r="L6" s="8">
+      <c r="L6" s="10">
         <v>84.959349593495944</v>
       </c>
-      <c r="M6" s="8">
+      <c r="M6" s="10">
         <v>83.739837398373979</v>
       </c>
-      <c r="N6" s="8">
+      <c r="N6" s="10">
         <v>75.609756097560975</v>
       </c>
-      <c r="O6" s="8">
+      <c r="O6" s="10">
         <v>63.414634146341463</v>
       </c>
-      <c r="P6" s="8">
+      <c r="P6" s="10">
         <v>81.707317073170728</v>
       </c>
-      <c r="Q6" s="8">
+      <c r="Q6" s="10">
         <v>86.99186991869918</v>
       </c>
     </row>
@@ -767,52 +785,52 @@
       <c r="A7" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="9">
         <v>92.962962962962976</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="9">
         <v>92.222222222222229</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="9">
         <v>84.074074074074076</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="9">
         <v>85.555555555555557</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="9">
         <v>96.666666666666671</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="9">
         <v>85.555555555555557</v>
       </c>
-      <c r="H7" s="8">
+      <c r="H7" s="9">
         <v>73.333333333333329</v>
       </c>
-      <c r="I7" s="8">
+      <c r="I7" s="9">
         <v>89.259259259259252</v>
       </c>
-      <c r="J7" s="8">
+      <c r="J7" s="10">
         <v>82.592592592592581</v>
       </c>
-      <c r="K7" s="8">
+      <c r="K7" s="10">
         <v>80.740740740740748</v>
       </c>
-      <c r="L7" s="8">
+      <c r="L7" s="10">
         <v>75.18518518518519</v>
       </c>
-      <c r="M7" s="8">
+      <c r="M7" s="10">
         <v>76.296296296296305</v>
       </c>
-      <c r="N7" s="8">
+      <c r="N7" s="10">
         <v>87.777777777777771</v>
       </c>
-      <c r="O7" s="8">
+      <c r="O7" s="10">
         <v>64.074074074074076</v>
       </c>
-      <c r="P7" s="8">
+      <c r="P7" s="10">
         <v>45.925925925925931</v>
       </c>
-      <c r="Q7" s="8">
+      <c r="Q7" s="10">
         <v>51.111111111111107</v>
       </c>
     </row>
@@ -820,52 +838,52 @@
       <c r="A8" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="9">
         <v>113.95348837209302</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="9">
         <v>88.759689922480618</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="9">
         <v>78.68217054263566</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="9">
         <v>94.961240310077528</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="9">
         <v>89.534883720930239</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="9">
         <v>79.844961240310084</v>
       </c>
-      <c r="H8" s="8">
+      <c r="H8" s="9">
         <v>91.085271317829452</v>
       </c>
-      <c r="I8" s="8">
+      <c r="I8" s="9">
         <v>89.922480620155028</v>
       </c>
-      <c r="J8" s="8">
+      <c r="J8" s="10">
         <v>98.449612403100787</v>
       </c>
-      <c r="K8" s="8">
+      <c r="K8" s="10">
         <v>101.93798449612403</v>
       </c>
-      <c r="L8" s="8">
+      <c r="L8" s="10">
         <v>98.837209302325576</v>
       </c>
-      <c r="M8" s="8">
+      <c r="M8" s="10">
         <v>106.9767441860465</v>
       </c>
-      <c r="N8" s="8">
+      <c r="N8" s="10">
         <v>110.07751937984496</v>
       </c>
-      <c r="O8" s="8">
+      <c r="O8" s="10">
         <v>123.64341085271317</v>
       </c>
-      <c r="P8" s="8">
+      <c r="P8" s="10">
         <v>118.6046511627907</v>
       </c>
-      <c r="Q8" s="8">
+      <c r="Q8" s="10">
         <v>108.91472868217056</v>
       </c>
     </row>
@@ -873,52 +891,52 @@
       <c r="A9" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="9">
         <v>100.80321285140563</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="9">
         <v>106.42570281124497</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="9">
         <v>74.297188755020088</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="9">
         <v>111.2449799196787</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="9">
         <v>117.67068273092369</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" s="9">
         <v>119.67871485943775</v>
       </c>
-      <c r="H9" s="8">
+      <c r="H9" s="9">
         <v>108.03212851405624</v>
       </c>
-      <c r="I9" s="8">
+      <c r="I9" s="9">
         <v>104.01606425702809</v>
       </c>
-      <c r="J9" s="8">
+      <c r="J9" s="10">
         <v>104.01606425702809</v>
       </c>
-      <c r="K9" s="8">
+      <c r="K9" s="10">
         <v>96.385542168674704</v>
       </c>
-      <c r="L9" s="8">
+      <c r="L9" s="10">
         <v>79.116465863453826</v>
       </c>
-      <c r="M9" s="8">
+      <c r="M9" s="10">
         <v>118.87550200803214</v>
       </c>
-      <c r="N9" s="8">
+      <c r="N9" s="10">
         <v>120.08032128514057</v>
       </c>
-      <c r="O9" s="8">
+      <c r="O9" s="10">
         <v>131.72690763052208</v>
       </c>
-      <c r="P9" s="8">
+      <c r="P9" s="10">
         <v>116.06425702811245</v>
       </c>
-      <c r="Q9" s="8">
+      <c r="Q9" s="10">
         <v>114.05622489959839</v>
       </c>
     </row>
@@ -926,52 +944,52 @@
       <c r="A10" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="9">
         <v>79.583333333333329</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="9">
         <v>77.083333333333329</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="9">
         <v>77.083333333333329</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="9">
         <v>86.25</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="9">
         <v>90.833333333333343</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G10" s="9">
         <v>86.25</v>
       </c>
-      <c r="H10" s="8">
+      <c r="H10" s="9">
         <v>68.333333333333329</v>
       </c>
-      <c r="I10" s="8">
+      <c r="I10" s="9">
         <v>71.25</v>
       </c>
-      <c r="J10" s="8">
+      <c r="J10" s="10">
         <v>83.333333333333343</v>
       </c>
-      <c r="K10" s="8">
+      <c r="K10" s="10">
         <v>84.583333333333343</v>
       </c>
-      <c r="L10" s="8">
+      <c r="L10" s="10">
         <v>89.583333333333343</v>
       </c>
-      <c r="M10" s="8">
+      <c r="M10" s="10">
         <v>85</v>
       </c>
-      <c r="N10" s="8">
+      <c r="N10" s="10">
         <v>80.416666666666657</v>
       </c>
-      <c r="O10" s="8">
+      <c r="O10" s="10">
         <v>69.166666666666671</v>
       </c>
-      <c r="P10" s="8">
+      <c r="P10" s="10">
         <v>84.166666666666657</v>
       </c>
-      <c r="Q10" s="8">
+      <c r="Q10" s="10">
         <v>83.75</v>
       </c>
     </row>
@@ -979,52 +997,52 @@
       <c r="A11" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11" s="9">
         <v>102.65151515151514</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="9">
         <v>86.36363636363636</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="9">
         <v>62.5</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="9">
         <v>115.90909090909092</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="9">
         <v>125.37878787878786</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G11" s="9">
         <v>109.09090909090908</v>
       </c>
-      <c r="H11" s="8">
+      <c r="H11" s="9">
         <v>113.25757575757575</v>
       </c>
-      <c r="I11" s="8">
+      <c r="I11" s="9">
         <v>104.16666666666667</v>
       </c>
-      <c r="J11" s="8">
+      <c r="J11" s="10">
         <v>106.06060606060606</v>
       </c>
-      <c r="K11" s="8">
+      <c r="K11" s="10">
         <v>85.606060606060595</v>
       </c>
-      <c r="L11" s="8">
+      <c r="L11" s="10">
         <v>65.909090909090907</v>
       </c>
-      <c r="M11" s="8">
+      <c r="M11" s="10">
         <v>103.03030303030303</v>
       </c>
-      <c r="N11" s="8">
+      <c r="N11" s="10">
         <v>119.6969696969697</v>
       </c>
-      <c r="O11" s="8">
+      <c r="O11" s="10">
         <v>115.15151515151514</v>
       </c>
-      <c r="P11" s="8">
+      <c r="P11" s="10">
         <v>113.63636363636364</v>
       </c>
-      <c r="Q11" s="8">
+      <c r="Q11" s="10">
         <v>99.242424242424235</v>
       </c>
     </row>
